--- a/Master NIEM Document/Mapping_Spreadsheets/05 Roles.xlsx
+++ b/Master NIEM Document/Mapping_Spreadsheets/05 Roles.xlsx
@@ -5,15 +5,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - CrashDriverReport Com" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Crash Driver Report" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
-  <si>
-    <t>CrashDriverReport Complete</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+  <si>
+    <t>Crash Driver Report</t>
   </si>
   <si>
     <t>Class</t>
@@ -82,9 +82,6 @@
     <t>A human being.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person</t>
-  </si>
-  <si>
     <t>Birth Date</t>
   </si>
   <si>
@@ -103,7 +100,7 @@
     <t>A date a person was born.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate</t>
+    <t>nc:Person/nc:PersonBirthDate</t>
   </si>
   <si>
     <t>nc:DateRepresentation</t>
@@ -112,7 +109,7 @@
     <t>A data concept for a representation of a date.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]</t>
+    <t>nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]</t>
   </si>
   <si>
     <t>nc:Date</t>
@@ -124,7 +121,7 @@
     <t>A full date.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]/nc:Date</t>
+    <t>nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]/nc:Date</t>
   </si>
   <si>
     <t>nc:PersonName</t>
@@ -136,7 +133,7 @@
     <t>A combination of names and/or titles by which a person is known.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName</t>
+    <t>nc:Person/nc:PersonName</t>
   </si>
   <si>
     <t>First Name</t>
@@ -154,7 +151,7 @@
     <t>A first name of a person.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonGivenName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonGivenName</t>
   </si>
   <si>
     <t>Middle Name</t>
@@ -175,7 +172,7 @@
     <t>0..many</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonMiddleName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonMiddleName</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -190,7 +187,7 @@
     <t>A last name or family name of a person.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonSurName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonSurName</t>
   </si>
   <si>
     <t>Crash</t>
@@ -208,19 +205,16 @@
     <t>A traffic accident.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash</t>
-  </si>
-  <si>
     <t>nc:ActivityDate</t>
   </si>
   <si>
     <t>A date of an activity.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:ActivityDate</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:ActivityDate/[nc:DateRepresentation]</t>
+    <t>j:Crash/nc:ActivityDate</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:ActivityDate/[nc:DateRepresentation]</t>
   </si>
   <si>
     <t>Crash Date</t>
@@ -229,7 +223,7 @@
     <t>The date a crash occurred.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:ActivityDate/[nc:DateRepresentation]/nc:Date</t>
+    <t>j:Crash/nc:ActivityDate/[nc:DateRepresentation]/nc:Date</t>
   </si>
   <si>
     <t>Driver</t>
@@ -265,16 +259,19 @@
     <t>A person involved in a traffic accident.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson</t>
+    <t>j:Crash/j:CrashPerson</t>
   </si>
   <si>
     <t>nc:RoleOfPerson</t>
   </si>
   <si>
+    <t>reference</t>
+  </si>
+  <si>
     <t>A person of whom the role object is a function.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/nc:RoleOfPerson</t>
+    <t>j:Crash/j:CrashPerson/nc:RoleOfPerson</t>
   </si>
   <si>
     <t>j:CrashPersonInjury</t>
@@ -286,7 +283,7 @@
     <t>An injury received by a person involved in a traffic accident.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
   </si>
   <si>
     <t>Injury Description</t>
@@ -301,7 +298,7 @@
     <t>nc:TextType</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
   </si>
   <si>
     <t>Severity Code</t>
@@ -343,10 +340,7 @@
     <t>An association between a person and a charge issued to that person.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/nc:Person</t>
+    <t>j:PersonChargeAssociation/nc:Person</t>
   </si>
   <si>
     <t>Charge</t>
@@ -367,7 +361,7 @@
     <t>A formal allegation that a specific person has committed a specific offense.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/j:Charge</t>
+    <t>j:PersonChargeAssociation/j:Charge</t>
   </si>
   <si>
     <t>j:JuvenileAsAdultIndicator</t>
@@ -379,10 +373,10 @@
     <t>True if a juvenile is to be processed as an adult; false otherwise.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/j:JuvenileAsAdultIndicator</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Charge</t>
+    <t>j:PersonChargeAssociation/j:JuvenileAsAdultIndicator</t>
+  </si>
+  <si>
+    <t>element</t>
   </si>
   <si>
     <t>Charge Description</t>
@@ -397,7 +391,7 @@
     <t>A plain language description of a charge.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Charge/j:ChargeDescriptionText</t>
+    <t>j:Charge/j:ChargeDescriptionText</t>
   </si>
   <si>
     <t>Is Felony</t>
@@ -412,7 +406,7 @@
     <t>True if a charge refers to a felony offense; false otherwise.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Charge/j:ChargeFelonyIndicator</t>
+    <t>j:Charge/j:ChargeFelonyIndicator</t>
   </si>
   <si>
     <t>Is Criminal Information</t>
@@ -1976,7 +1970,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P35"/>
+  <dimension ref="A2:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2130,7 +2124,7 @@
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
       <c r="P4" t="s" s="25">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -2138,22 +2132,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="18">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="18">
+      <c r="D5" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="D5" t="s" s="19">
+      <c r="E5" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="21">
         <v>26</v>
       </c>
-      <c r="E5" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="21">
+      <c r="G5" t="s" s="22">
         <v>27</v>
-      </c>
-      <c r="G5" t="s" s="22">
-        <v>28</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" t="s" s="22">
@@ -2162,7 +2156,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" t="s" s="24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s" s="22">
         <v>19</v>
@@ -2170,7 +2164,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" t="s" s="25">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -2180,17 +2174,17 @@
       <c r="D6" s="17"/>
       <c r="E6" s="28"/>
       <c r="F6" t="s" s="21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" t="s" s="22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" t="s" s="24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s" s="22">
         <v>19</v>
@@ -2198,7 +2192,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" t="s" s="25">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -2208,25 +2202,25 @@
       <c r="D7" s="17"/>
       <c r="E7" s="28"/>
       <c r="F7" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="22">
         <v>34</v>
-      </c>
-      <c r="G7" t="s" s="22">
-        <v>35</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" t="s" s="22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" t="s" s="24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" t="s" s="25">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -2236,10 +2230,10 @@
       <c r="D8" s="17"/>
       <c r="E8" s="28"/>
       <c r="F8" t="s" s="21">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s" s="22">
         <v>38</v>
-      </c>
-      <c r="G8" t="s" s="22">
-        <v>39</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" t="s" s="22">
@@ -2248,7 +2242,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" t="s" s="24">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s" s="22">
         <v>19</v>
@@ -2256,7 +2250,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" t="s" s="25">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -2264,31 +2258,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="18">
         <v>42</v>
       </c>
-      <c r="C9" t="s" s="18">
+      <c r="D9" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s" s="21">
         <v>43</v>
       </c>
-      <c r="D9" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s" s="21">
+      <c r="G9" t="s" s="22">
         <v>44</v>
-      </c>
-      <c r="G9" t="s" s="22">
-        <v>45</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" t="s" s="24">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s" s="22">
         <v>19</v>
@@ -2296,7 +2290,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" t="s" s="25">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -2304,39 +2298,39 @@
         <v>17</v>
       </c>
       <c r="B10" t="s" s="19">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s" s="18">
         <v>48</v>
       </c>
-      <c r="C10" t="s" s="18">
+      <c r="D10" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s" s="20">
         <v>49</v>
       </c>
-      <c r="D10" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s" s="20">
+      <c r="F10" t="s" s="21">
         <v>50</v>
       </c>
-      <c r="F10" t="s" s="21">
-        <v>51</v>
-      </c>
       <c r="G10" t="s" s="22">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" t="s" s="24">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s" s="22">
         <v>52</v>
-      </c>
-      <c r="M10" t="s" s="22">
-        <v>53</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" t="s" s="25">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -2344,31 +2338,31 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="19">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s" s="18">
         <v>55</v>
       </c>
-      <c r="C11" t="s" s="18">
+      <c r="D11" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s" s="21">
         <v>56</v>
       </c>
-      <c r="D11" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s" s="21">
-        <v>57</v>
-      </c>
       <c r="G11" t="s" s="22">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" t="s" s="24">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s" s="22">
         <v>19</v>
@@ -2376,16 +2370,16 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" t="s" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" t="s" s="18">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s" s="19">
         <v>1</v>
@@ -2394,17 +2388,17 @@
         <v>19</v>
       </c>
       <c r="F12" t="s" s="21">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s" s="22">
         <v>62</v>
-      </c>
-      <c r="G12" t="s" s="22">
-        <v>63</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" t="s" s="24">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s" s="22">
         <v>19</v>
@@ -2412,7 +2406,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" t="s" s="25">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -2422,19 +2416,19 @@
       <c r="D13" s="17"/>
       <c r="E13" s="28"/>
       <c r="F13" t="s" s="21">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s" s="22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" t="s" s="22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" t="s" s="24">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s" s="22">
         <v>19</v>
@@ -2442,7 +2436,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" t="s" s="25">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -2452,17 +2446,17 @@
       <c r="D14" s="17"/>
       <c r="E14" s="28"/>
       <c r="F14" t="s" s="21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" t="s" s="22">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" t="s" s="24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" t="s" s="22">
         <v>19</v>
@@ -2470,54 +2464,54 @@
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" t="s" s="25">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s" s="19">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s" s="18">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F15" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s" s="22">
         <v>34</v>
-      </c>
-      <c r="G15" t="s" s="22">
-        <v>35</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" t="s" s="22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" t="s" s="24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" t="s" s="25">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="16">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" t="s" s="18">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s" s="19">
         <v>1</v>
@@ -2539,16 +2533,16 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="16">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s" s="19">
         <v>73</v>
       </c>
-      <c r="B17" t="s" s="19">
-        <v>75</v>
-      </c>
       <c r="C17" t="s" s="18">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s" s="20">
         <v>19</v>
@@ -2567,16 +2561,16 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="16">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s" s="19">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s" s="18">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s" s="20">
         <v>19</v>
@@ -2595,40 +2589,40 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="16">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" t="s" s="18">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s" s="19">
         <v>1</v>
       </c>
       <c r="E19" t="s" s="20">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s" s="32">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="33">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" t="s" s="33">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" t="s" s="35">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M19" t="s" s="33">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
       <c r="P19" t="s" s="36">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -2638,19 +2632,21 @@
       <c r="D20" s="17"/>
       <c r="E20" s="28"/>
       <c r="F20" t="s" s="32">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="33">
         <v>21</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" t="s" s="33">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="K20" t="s" s="33">
+        <v>84</v>
+      </c>
       <c r="L20" t="s" s="35">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s" s="33">
         <v>19</v>
@@ -2658,7 +2654,7 @@
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" t="s" s="36">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -2668,19 +2664,19 @@
       <c r="D21" s="17"/>
       <c r="E21" s="28"/>
       <c r="F21" t="s" s="32">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s" s="33">
         <v>88</v>
-      </c>
-      <c r="G21" t="s" s="33">
-        <v>89</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" t="s" s="33">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" t="s" s="35">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M21" t="s" s="33">
         <v>19</v>
@@ -2688,39 +2684,39 @@
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
       <c r="P21" t="s" s="36">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="16">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s" s="19">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s" s="18">
         <v>92</v>
       </c>
-      <c r="C22" t="s" s="18">
+      <c r="D22" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s" s="32">
         <v>93</v>
       </c>
-      <c r="D22" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s" s="32">
+      <c r="G22" t="s" s="33">
         <v>94</v>
-      </c>
-      <c r="G22" t="s" s="33">
-        <v>95</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" t="s" s="33">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" t="s" s="35">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M22" t="s" s="33">
         <v>19</v>
@@ -2728,21 +2724,21 @@
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" t="s" s="36">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="16">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s" s="19">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s" s="18">
         <v>97</v>
       </c>
-      <c r="C23" t="s" s="18">
+      <c r="D23" t="s" s="19">
         <v>98</v>
-      </c>
-      <c r="D23" t="s" s="19">
-        <v>99</v>
       </c>
       <c r="E23" t="s" s="20">
         <v>19</v>
@@ -2761,16 +2757,16 @@
     </row>
     <row r="24" ht="32.05" customHeight="1">
       <c r="A24" t="s" s="16">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s" s="19">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s" s="18">
         <v>100</v>
       </c>
-      <c r="C24" t="s" s="18">
+      <c r="D24" t="s" s="19">
         <v>101</v>
-      </c>
-      <c r="D24" t="s" s="19">
-        <v>102</v>
       </c>
       <c r="E24" t="s" s="20">
         <v>19</v>
@@ -2789,16 +2785,16 @@
     </row>
     <row r="25" ht="32.05" customHeight="1">
       <c r="A25" t="s" s="16">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s" s="19">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s" s="18">
         <v>103</v>
       </c>
-      <c r="C25" t="s" s="18">
-        <v>104</v>
-      </c>
       <c r="D25" t="s" s="19">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s" s="20">
         <v>19</v>
@@ -2817,16 +2813,16 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s" s="19">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s" s="18">
         <v>105</v>
       </c>
-      <c r="C26" t="s" s="18">
-        <v>106</v>
-      </c>
       <c r="D26" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s" s="20">
         <v>19</v>
@@ -2844,32 +2840,32 @@
       <c r="P26" s="31"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="16">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s" s="19">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s" s="18">
+      <c r="A27" s="26"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="28"/>
+      <c r="F27" t="s" s="21">
         <v>106</v>
       </c>
-      <c r="D27" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="23"/>
+      <c r="G27" t="s" s="22">
+        <v>107</v>
+      </c>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="23"/>
+      <c r="L27" t="s" s="24">
+        <v>108</v>
+      </c>
+      <c r="M27" t="s" s="22">
+        <v>19</v>
+      </c>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
-      <c r="P27" s="31"/>
+      <c r="P27" t="s" s="25">
+        <v>106</v>
+      </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="26"/>
@@ -2878,17 +2874,21 @@
       <c r="D28" s="17"/>
       <c r="E28" s="28"/>
       <c r="F28" t="s" s="21">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s" s="22">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="I28" t="s" s="22">
+        <v>106</v>
+      </c>
       <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
+      <c r="K28" t="s" s="22">
+        <v>84</v>
+      </c>
       <c r="L28" t="s" s="24">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="M28" t="s" s="22">
         <v>19</v>
@@ -2896,75 +2896,77 @@
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
       <c r="P28" t="s" s="25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="16">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="26"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="28"/>
+      <c r="C29" t="s" s="18">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s" s="20">
+        <v>112</v>
+      </c>
       <c r="F29" t="s" s="21">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s" s="22">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" t="s" s="22">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
+      <c r="K29" t="s" s="22">
+        <v>84</v>
+      </c>
       <c r="L29" t="s" s="24">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="M29" t="s" s="22">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" t="s" s="25">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="16">
-        <v>112</v>
-      </c>
+      <c r="A30" s="26"/>
       <c r="B30" s="17"/>
-      <c r="C30" t="s" s="18">
-        <v>113</v>
-      </c>
-      <c r="D30" t="s" s="19">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s" s="20">
-        <v>114</v>
-      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="28"/>
       <c r="F30" t="s" s="21">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G30" t="s" s="22">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" t="s" s="22">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" t="s" s="24">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M30" t="s" s="22">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" t="s" s="25">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
@@ -2974,19 +2976,19 @@
       <c r="D31" s="17"/>
       <c r="E31" s="28"/>
       <c r="F31" t="s" s="21">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G31" t="s" s="22">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H31" s="23"/>
-      <c r="I31" t="s" s="22">
-        <v>107</v>
-      </c>
+      <c r="I31" s="23"/>
       <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
+      <c r="K31" t="s" s="22">
+        <v>121</v>
+      </c>
       <c r="L31" t="s" s="24">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M31" t="s" s="22">
         <v>19</v>
@@ -2994,27 +2996,39 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" t="s" s="25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="16">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s" s="19">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="28"/>
+      <c r="C32" t="s" s="18">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s" s="20">
+        <v>19</v>
+      </c>
       <c r="F32" t="s" s="21">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G32" t="s" s="22">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="I32" t="s" s="22">
+        <v>113</v>
+      </c>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
       <c r="L32" t="s" s="24">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M32" t="s" s="22">
         <v>19</v>
@@ -3022,39 +3036,39 @@
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
       <c r="P32" t="s" s="25">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="16">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s" s="19">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s" s="18">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s" s="19">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F33" t="s" s="21">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s" s="22">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" t="s" s="22">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
       <c r="L33" t="s" s="24">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s" s="22">
         <v>19</v>
@@ -3062,76 +3076,36 @@
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
       <c r="P33" t="s" s="25">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="16">
-        <v>112</v>
-      </c>
-      <c r="B34" t="s" s="19">
-        <v>129</v>
-      </c>
-      <c r="C34" t="s" s="18">
-        <v>130</v>
-      </c>
-      <c r="D34" t="s" s="19">
-        <v>102</v>
-      </c>
-      <c r="E34" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F34" t="s" s="21">
-        <v>131</v>
-      </c>
-      <c r="G34" t="s" s="22">
-        <v>120</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" t="s" s="22">
-        <v>115</v>
-      </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" t="s" s="24">
+      <c r="A34" t="s" s="37">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s" s="38">
         <v>132</v>
       </c>
-      <c r="M34" t="s" s="22">
-        <v>19</v>
-      </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" t="s" s="25">
+      <c r="C34" t="s" s="39">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="37">
-        <v>112</v>
-      </c>
-      <c r="B35" t="s" s="38">
-        <v>134</v>
-      </c>
-      <c r="C35" t="s" s="39">
-        <v>135</v>
-      </c>
-      <c r="D35" t="s" s="38">
-        <v>102</v>
-      </c>
-      <c r="E35" t="s" s="40">
-        <v>19</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="44"/>
+      <c r="D34" t="s" s="38">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s" s="40">
+        <v>19</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Master NIEM Document/Mapping_Spreadsheets/05 Roles.xlsx
+++ b/Master NIEM Document/Mapping_Spreadsheets/05 Roles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>Crash Driver Report</t>
   </si>
@@ -343,64 +343,55 @@
     <t>j:PersonChargeAssociation/nc:Person</t>
   </si>
   <si>
+    <t>j:Charge</t>
+  </si>
+  <si>
+    <t>j:ChargeType</t>
+  </si>
+  <si>
+    <t>A formal allegation that a specific person has committed a specific offense.</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation/j:Charge</t>
+  </si>
+  <si>
     <t>Charge</t>
   </si>
   <si>
     <t>A committed offense.</t>
   </si>
   <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>j:Charge</t>
-  </si>
-  <si>
-    <t>j:ChargeType</t>
-  </si>
-  <si>
-    <t>A formal allegation that a specific person has committed a specific offense.</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociation/j:Charge</t>
-  </si>
-  <si>
-    <t>j:JuvenileAsAdultIndicator</t>
+    <t>element</t>
+  </si>
+  <si>
+    <t>Charge Description</t>
+  </si>
+  <si>
+    <t>A description of a charge.</t>
+  </si>
+  <si>
+    <t>j:ChargeDescriptionText</t>
+  </si>
+  <si>
+    <t>A plain language description of a charge.</t>
+  </si>
+  <si>
+    <t>j:Charge/j:ChargeDescriptionText</t>
+  </si>
+  <si>
+    <t>Is Felony</t>
+  </si>
+  <si>
+    <t>Whether a charge is a felony.</t>
+  </si>
+  <si>
+    <t>j:ChargeFelonyIndicator</t>
   </si>
   <si>
     <t>niem-xs:boolean</t>
-  </si>
-  <si>
-    <t>True if a juvenile is to be processed as an adult; false otherwise.</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociation/j:JuvenileAsAdultIndicator</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>Charge Description</t>
-  </si>
-  <si>
-    <t>A description of a charge.</t>
-  </si>
-  <si>
-    <t>j:ChargeDescriptionText</t>
-  </si>
-  <si>
-    <t>A plain language description of a charge.</t>
-  </si>
-  <si>
-    <t>j:Charge/j:ChargeDescriptionText</t>
-  </si>
-  <si>
-    <t>Is Felony</t>
-  </si>
-  <si>
-    <t>Whether a charge is a felony.</t>
-  </si>
-  <si>
-    <t>j:ChargeFelonyIndicator</t>
   </si>
   <si>
     <t>True if a charge refers to a felony offense; false otherwise.</t>
@@ -1970,7 +1961,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P34"/>
+  <dimension ref="A2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2900,24 +2891,16 @@
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="16">
+      <c r="A29" s="26"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="28"/>
+      <c r="F29" t="s" s="21">
         <v>110</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" t="s" s="18">
+      <c r="G29" t="s" s="22">
         <v>111</v>
-      </c>
-      <c r="D29" t="s" s="19">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F29" t="s" s="21">
-        <v>113</v>
-      </c>
-      <c r="G29" t="s" s="22">
-        <v>114</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" t="s" s="22">
@@ -2928,37 +2911,45 @@
         <v>84</v>
       </c>
       <c r="L29" t="s" s="24">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M29" t="s" s="22">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" t="s" s="25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="16">
+        <v>115</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" t="s" s="18">
         <v>116</v>
       </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="28"/>
+      <c r="D30" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s" s="20">
+        <v>113</v>
+      </c>
       <c r="F30" t="s" s="21">
+        <v>110</v>
+      </c>
+      <c r="G30" t="s" s="22">
+        <v>111</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" t="s" s="22">
         <v>117</v>
       </c>
-      <c r="G30" t="s" s="22">
-        <v>118</v>
-      </c>
-      <c r="H30" s="23"/>
-      <c r="I30" t="s" s="22">
-        <v>106</v>
-      </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
       <c r="L30" t="s" s="24">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="M30" t="s" s="22">
         <v>19</v>
@@ -2966,29 +2957,39 @@
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" t="s" s="25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="16">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s" s="19">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s" s="21">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="28"/>
-      <c r="F31" t="s" s="21">
-        <v>113</v>
-      </c>
       <c r="G31" t="s" s="22">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="I31" t="s" s="22">
+        <v>110</v>
+      </c>
       <c r="J31" s="23"/>
-      <c r="K31" t="s" s="22">
+      <c r="K31" s="23"/>
+      <c r="L31" t="s" s="24">
         <v>121</v>
-      </c>
-      <c r="L31" t="s" s="24">
-        <v>115</v>
       </c>
       <c r="M31" t="s" s="22">
         <v>19</v>
@@ -2996,39 +2997,39 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" t="s" s="25">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="16">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s" s="19">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s" s="18">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s" s="19">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F32" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G32" t="s" s="22">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" t="s" s="22">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
       <c r="L32" t="s" s="24">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M32" t="s" s="22">
         <v>19</v>
@@ -3036,76 +3037,36 @@
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
       <c r="P32" t="s" s="25">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="16">
-        <v>110</v>
-      </c>
-      <c r="B33" t="s" s="19">
-        <v>127</v>
-      </c>
-      <c r="C33" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="D33" t="s" s="19">
+      <c r="A33" t="s" s="37">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s" s="38">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s" s="39">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s" s="38">
         <v>101</v>
       </c>
-      <c r="E33" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F33" t="s" s="21">
-        <v>129</v>
-      </c>
-      <c r="G33" t="s" s="22">
-        <v>118</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" t="s" s="22">
-        <v>113</v>
-      </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" t="s" s="24">
-        <v>130</v>
-      </c>
-      <c r="M33" t="s" s="22">
-        <v>19</v>
-      </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" t="s" s="25">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="37">
-        <v>110</v>
-      </c>
-      <c r="B34" t="s" s="38">
-        <v>132</v>
-      </c>
-      <c r="C34" t="s" s="39">
-        <v>133</v>
-      </c>
-      <c r="D34" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="E34" t="s" s="40">
-        <v>19</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="44"/>
+      <c r="E33" t="s" s="40">
+        <v>19</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
